--- a/papers/data/表格/Compare with opt/Compare with OPT.xlsx
+++ b/papers/data/表格/Compare with opt/Compare with OPT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Heur.</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>ILS-MP</t>
+  </si>
+  <si>
+    <t>n=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dev.</t>
+  </si>
+  <si>
+    <t>%opt</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -132,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -142,6 +166,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,6 +1636,380 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D48" s="4">
+        <v>97</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G48" s="4">
+        <v>83.17</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="J48" s="4">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>81.09</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>50.83</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="J49" s="4">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D50" s="4">
+        <v>79.59</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G50" s="4">
+        <v>56.53</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="J50" s="4">
+        <v>44.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="4">
+        <v>99.56</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G51" s="4">
+        <v>97.31</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="J51" s="4">
+        <v>91.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>99.89</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>98.41</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J52" s="4">
+        <v>95.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>100</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D55" s="4">
+        <v>88.83</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G55" s="4">
+        <v>75.83</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="J55" s="4">
+        <v>56.83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="D56" s="4">
+        <v>68.87</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="G56" s="4">
+        <v>33.03</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="J56" s="4">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D57" s="4">
+        <v>60.18</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G57" s="4">
+        <v>28.88</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="J57" s="4">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D58" s="4">
+        <v>98.98</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G58" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="J58" s="4">
+        <v>84.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>99.73</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G59" s="4">
+        <v>96.03</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="J59" s="4">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G60" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J60" s="4">
+        <v>94.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
